--- a/data/input/absenteeism_data_25.xlsx
+++ b/data/input/absenteeism_data_25.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3213</v>
+        <v>55274</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fernanda das Neves</t>
+          <t>Natália Lima</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45082</v>
+        <v>45085</v>
       </c>
       <c r="G2" t="n">
-        <v>11817.22</v>
+        <v>12319.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16624</v>
+        <v>35912</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Otávio Correia</t>
+          <t>Ana Vitória Mendes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,31 +519,31 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45103</v>
+        <v>45085</v>
       </c>
       <c r="G3" t="n">
-        <v>9109.66</v>
+        <v>10316.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>74797</v>
+        <v>75324</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Davi Lucas da Paz</t>
+          <t>Sr. Diego Cardoso</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,27 +552,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45092</v>
+        <v>45079</v>
       </c>
       <c r="G4" t="n">
-        <v>10904.2</v>
+        <v>9511.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>82060</v>
+        <v>92051</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Renan Duarte</t>
+          <t>Sra. Caroline Fernandes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,27 +581,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45103</v>
+        <v>45094</v>
       </c>
       <c r="G5" t="n">
-        <v>6930.45</v>
+        <v>5006.47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>60118</v>
+        <v>81974</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lorena Souza</t>
+          <t>Sr. João Martins</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,158 +610,158 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45079</v>
+        <v>45095</v>
       </c>
       <c r="G6" t="n">
-        <v>9119.77</v>
+        <v>4469.48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>97848</v>
+        <v>95305</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Theo da Rosa</t>
+          <t>Dr. Marcos Vinicius Novaes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45080</v>
+        <v>45088</v>
       </c>
       <c r="G7" t="n">
-        <v>7436.27</v>
+        <v>5356.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>31372</v>
+        <v>20636</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bruna Silva</t>
+          <t>Emanuelly Pinto</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45083</v>
+        <v>45085</v>
       </c>
       <c r="G8" t="n">
-        <v>10744.88</v>
+        <v>6217.26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>94862</v>
+        <v>43881</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rafaela Teixeira</t>
+          <t>Marcela da Conceição</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45083</v>
+        <v>45099</v>
       </c>
       <c r="G9" t="n">
-        <v>5266.09</v>
+        <v>3928.66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>74961</v>
+        <v>64154</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dra. Lara Araújo</t>
+          <t>Luiz Fernando da Paz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>45079</v>
       </c>
       <c r="G10" t="n">
-        <v>12209.77</v>
+        <v>3625.61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>51580</v>
+        <v>38539</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Theo da Rocha</t>
+          <t>Enzo Gabriel Barros</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45085</v>
+        <v>45080</v>
       </c>
       <c r="G11" t="n">
-        <v>11887.72</v>
+        <v>7115.85</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_25.xlsx
+++ b/data/input/absenteeism_data_25.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>55274</v>
+        <v>45473</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Natália Lima</t>
+          <t>Beatriz Souza</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,56 +494,56 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>45085</v>
       </c>
       <c r="G2" t="n">
-        <v>12319.01</v>
+        <v>6627.23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>35912</v>
+        <v>76086</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Vitória Mendes</t>
+          <t>Bruna Barbosa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45085</v>
+        <v>45103</v>
       </c>
       <c r="G3" t="n">
-        <v>10316.45</v>
+        <v>5671.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>75324</v>
+        <v>35171</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sr. Diego Cardoso</t>
+          <t>Sr. Rodrigo Carvalho</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,27 +552,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45079</v>
+        <v>45091</v>
       </c>
       <c r="G4" t="n">
-        <v>9511.18</v>
+        <v>8180.57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>92051</v>
+        <v>36413</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sra. Caroline Fernandes</t>
+          <t>Juliana Souza</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -584,48 +584,48 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45094</v>
+        <v>45093</v>
       </c>
       <c r="G5" t="n">
-        <v>5006.47</v>
+        <v>11309.07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>81974</v>
+        <v>31466</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. João Martins</t>
+          <t>Nina Lopes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45095</v>
+        <v>45094</v>
       </c>
       <c r="G6" t="n">
-        <v>4469.48</v>
+        <v>8171.11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>95305</v>
+        <v>18287</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dr. Marcos Vinicius Novaes</t>
+          <t>João Miguel da Conceição</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,31 +635,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45088</v>
+        <v>45095</v>
       </c>
       <c r="G7" t="n">
-        <v>5356.8</v>
+        <v>8191.68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20636</v>
+        <v>71317</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Emanuelly Pinto</t>
+          <t>Srta. Vitória Nunes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,56 +668,56 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45085</v>
+        <v>45079</v>
       </c>
       <c r="G8" t="n">
-        <v>6217.26</v>
+        <v>5510.27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>43881</v>
+        <v>81764</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Marcela da Conceição</t>
+          <t>Ana Beatriz da Rosa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45099</v>
+        <v>45101</v>
       </c>
       <c r="G9" t="n">
-        <v>3928.66</v>
+        <v>3496.78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>64154</v>
+        <v>10726</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luiz Fernando da Paz</t>
+          <t>Pedro Miguel Barbosa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="G10" t="n">
-        <v>3625.61</v>
+        <v>6562.34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>38539</v>
+        <v>55286</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Enzo Gabriel Barros</t>
+          <t>Enzo Gabriel Sales</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45080</v>
+        <v>45100</v>
       </c>
       <c r="G11" t="n">
-        <v>7115.85</v>
+        <v>7599.68</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_25.xlsx
+++ b/data/input/absenteeism_data_25.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>45473</v>
+        <v>96080</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beatriz Souza</t>
+          <t>Clarice Moura</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45085</v>
+        <v>45094</v>
       </c>
       <c r="G2" t="n">
-        <v>6627.23</v>
+        <v>8639.440000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>76086</v>
+        <v>92206</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bruna Barbosa</t>
+          <t>Eduardo Aragão</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,114 +523,114 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45103</v>
+        <v>45090</v>
       </c>
       <c r="G3" t="n">
-        <v>5671.62</v>
+        <v>2698.96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>35171</v>
+        <v>89321</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sr. Rodrigo Carvalho</t>
+          <t>Sr. Lucas Nascimento</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45091</v>
+        <v>45099</v>
       </c>
       <c r="G4" t="n">
-        <v>8180.57</v>
+        <v>8257.110000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>36413</v>
+        <v>10524</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Juliana Souza</t>
+          <t>Natália Rezende</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45093</v>
+        <v>45090</v>
       </c>
       <c r="G5" t="n">
-        <v>11309.07</v>
+        <v>11677.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>31466</v>
+        <v>5713</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nina Lopes</t>
+          <t>Sr. Vitor Gabriel Lopes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45094</v>
+        <v>45098</v>
       </c>
       <c r="G6" t="n">
-        <v>8171.11</v>
+        <v>5533.74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18287</v>
+        <v>33545</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>João Miguel da Conceição</t>
+          <t>Sarah Aragão</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,51 +639,51 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45095</v>
+        <v>45093</v>
       </c>
       <c r="G7" t="n">
-        <v>8191.68</v>
+        <v>10529.22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>71317</v>
+        <v>16054</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Srta. Vitória Nunes</t>
+          <t>Laís Pereira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45079</v>
+        <v>45097</v>
       </c>
       <c r="G8" t="n">
-        <v>5510.27</v>
+        <v>7114.45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>81764</v>
+        <v>57986</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Beatriz da Rosa</t>
+          <t>Eduardo Pires</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,55 +693,55 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45101</v>
+        <v>45106</v>
       </c>
       <c r="G9" t="n">
-        <v>3496.78</v>
+        <v>7828.09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10726</v>
+        <v>10988</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pedro Miguel Barbosa</t>
+          <t>Dra. Ana Júlia Nogueira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45086</v>
+        <v>45098</v>
       </c>
       <c r="G10" t="n">
-        <v>6562.34</v>
+        <v>12081.33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>55286</v>
+        <v>89487</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Enzo Gabriel Sales</t>
+          <t>Srta. Bruna da Luz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45100</v>
+        <v>45102</v>
       </c>
       <c r="G11" t="n">
-        <v>7599.68</v>
+        <v>8071.8</v>
       </c>
     </row>
   </sheetData>
